--- a/pred_ohlcv/54_21/2019-10-24 KNC ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-10-24 KNC ohlcv.xlsx
@@ -1224,7 +1224,7 @@
         <v>-863311.7433999996</v>
       </c>
       <c r="H32">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1250,7 +1250,7 @@
         <v>-863311.7433999996</v>
       </c>
       <c r="H33">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1276,7 +1276,7 @@
         <v>-863311.7433999996</v>
       </c>
       <c r="H34">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1302,7 +1302,7 @@
         <v>-863311.7433999996</v>
       </c>
       <c r="H35">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1328,7 +1328,7 @@
         <v>-863311.7433999996</v>
       </c>
       <c r="H36">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1354,7 +1354,7 @@
         <v>-863311.7433999996</v>
       </c>
       <c r="H37">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -3044,7 +3044,7 @@
         <v>531647.2054000004</v>
       </c>
       <c r="H102">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -3070,7 +3070,7 @@
         <v>531647.2054000004</v>
       </c>
       <c r="H103">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -3096,7 +3096,7 @@
         <v>531647.2054000004</v>
       </c>
       <c r="H104">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="105" spans="1:8">
@@ -3122,7 +3122,7 @@
         <v>531647.2054000004</v>
       </c>
       <c r="H105">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="106" spans="1:8">
@@ -3148,7 +3148,7 @@
         <v>531647.2054000004</v>
       </c>
       <c r="H106">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -3174,7 +3174,7 @@
         <v>531647.2054000004</v>
       </c>
       <c r="H107">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="108" spans="1:8">
@@ -3200,7 +3200,7 @@
         <v>531647.2054000004</v>
       </c>
       <c r="H108">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="109" spans="1:8">
@@ -3226,7 +3226,7 @@
         <v>531647.2054000004</v>
       </c>
       <c r="H109">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="110" spans="1:8">
@@ -3252,7 +3252,7 @@
         <v>531647.2054000004</v>
       </c>
       <c r="H110">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="111" spans="1:8">
@@ -3278,7 +3278,7 @@
         <v>531647.2054000004</v>
       </c>
       <c r="H111">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="112" spans="1:8">
@@ -3304,7 +3304,7 @@
         <v>531647.2054000004</v>
       </c>
       <c r="H112">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="113" spans="1:8">
@@ -3330,7 +3330,7 @@
         <v>531647.2054000004</v>
       </c>
       <c r="H113">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="114" spans="1:8">
@@ -3460,7 +3460,7 @@
         <v>531647.2054000004</v>
       </c>
       <c r="H118">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="119" spans="1:8">
@@ -3512,7 +3512,7 @@
         <v>531647.2054000004</v>
       </c>
       <c r="H120">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="121" spans="1:8">
@@ -4994,7 +4994,7 @@
         <v>-1074470.8888</v>
       </c>
       <c r="H177">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="178" spans="1:8">
@@ -5046,7 +5046,7 @@
         <v>-1412066.8888</v>
       </c>
       <c r="H179">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="180" spans="1:8">
@@ -5150,7 +5150,7 @@
         <v>-1412066.8888</v>
       </c>
       <c r="H183">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="184" spans="1:8">
@@ -5202,7 +5202,7 @@
         <v>-1412066.8888</v>
       </c>
       <c r="H185">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="186" spans="1:8">
@@ -5254,7 +5254,7 @@
         <v>-1412066.8888</v>
       </c>
       <c r="H187">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="188" spans="1:8">
@@ -5280,7 +5280,7 @@
         <v>-1412066.8888</v>
       </c>
       <c r="H188">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="189" spans="1:8">
@@ -5306,7 +5306,7 @@
         <v>-1412066.8888</v>
       </c>
       <c r="H189">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="190" spans="1:8">
@@ -5358,7 +5358,7 @@
         <v>-1393960.6727</v>
       </c>
       <c r="H191">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="192" spans="1:8">
@@ -5384,7 +5384,7 @@
         <v>-1394915.336099999</v>
       </c>
       <c r="H192">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="193" spans="1:8">
@@ -5410,7 +5410,7 @@
         <v>-1394915.336099999</v>
       </c>
       <c r="H193">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="194" spans="1:8">
@@ -5436,7 +5436,7 @@
         <v>-1394915.336099999</v>
       </c>
       <c r="H194">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="195" spans="1:8">
@@ -5462,7 +5462,7 @@
         <v>-1423715.571999999</v>
       </c>
       <c r="H195">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="196" spans="1:8">
@@ -5488,7 +5488,7 @@
         <v>-1423655.0189</v>
       </c>
       <c r="H196">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="197" spans="1:8">
@@ -6112,7 +6112,7 @@
         <v>-1435111.542499999</v>
       </c>
       <c r="H220">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="221" spans="1:8">
@@ -6138,7 +6138,7 @@
         <v>-1435110.542499999</v>
       </c>
       <c r="H221">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="222" spans="1:8">
@@ -6164,7 +6164,7 @@
         <v>-1436011.693299999</v>
       </c>
       <c r="H222">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="223" spans="1:8">
@@ -6190,7 +6190,7 @@
         <v>-1436011.693299999</v>
       </c>
       <c r="H223">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="224" spans="1:8">
@@ -6216,7 +6216,7 @@
         <v>-1436011.693299999</v>
       </c>
       <c r="H224">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="225" spans="1:8">
@@ -6242,7 +6242,7 @@
         <v>-1442207.932799999</v>
       </c>
       <c r="H225">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="226" spans="1:8">
@@ -6268,7 +6268,7 @@
         <v>-1442207.932799999</v>
       </c>
       <c r="H226">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="227" spans="1:8">
@@ -6294,7 +6294,7 @@
         <v>-1442207.932799999</v>
       </c>
       <c r="H227">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="228" spans="1:8">
@@ -6320,7 +6320,7 @@
         <v>-1442207.932799999</v>
       </c>
       <c r="H228">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="229" spans="1:8">
@@ -6346,7 +6346,7 @@
         <v>-1442994.674299999</v>
       </c>
       <c r="H229">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="230" spans="1:8">
@@ -6372,7 +6372,7 @@
         <v>-1442824.909399999</v>
       </c>
       <c r="H230">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="231" spans="1:8">
@@ -6398,7 +6398,7 @@
         <v>-1442824.909399999</v>
       </c>
       <c r="H231">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="232" spans="1:8">
@@ -6424,7 +6424,7 @@
         <v>-1442824.909399999</v>
       </c>
       <c r="H232">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="233" spans="1:8">
@@ -6450,7 +6450,7 @@
         <v>-1444293.365199999</v>
       </c>
       <c r="H233">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="234" spans="1:8">
@@ -6476,7 +6476,7 @@
         <v>-1444293.365199999</v>
       </c>
       <c r="H234">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="235" spans="1:8">
@@ -6502,7 +6502,7 @@
         <v>-1443999.891299999</v>
       </c>
       <c r="H235">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="236" spans="1:8">
@@ -6528,7 +6528,7 @@
         <v>-1443999.891299999</v>
       </c>
       <c r="H236">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="237" spans="1:8">
@@ -6554,7 +6554,7 @@
         <v>-1443999.891299999</v>
       </c>
       <c r="H237">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="238" spans="1:8">
@@ -6580,7 +6580,7 @@
         <v>-1443999.891299999</v>
       </c>
       <c r="H238">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="239" spans="1:8">
@@ -6606,7 +6606,7 @@
         <v>-1443999.891299999</v>
       </c>
       <c r="H239">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="240" spans="1:8">
@@ -6632,7 +6632,7 @@
         <v>-1512237.566499999</v>
       </c>
       <c r="H240">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="241" spans="1:8">
@@ -6658,7 +6658,7 @@
         <v>-1503208.491599999</v>
       </c>
       <c r="H241">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="242" spans="1:8">
@@ -6684,7 +6684,7 @@
         <v>-1503208.491599999</v>
       </c>
       <c r="H242">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="243" spans="1:8">
@@ -6710,7 +6710,7 @@
         <v>-1502682.175899999</v>
       </c>
       <c r="H243">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="244" spans="1:8">
@@ -6736,7 +6736,7 @@
         <v>-1502985.519799999</v>
       </c>
       <c r="H244">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="245" spans="1:8">
@@ -6788,7 +6788,7 @@
         <v>-1501316.519799999</v>
       </c>
       <c r="H246">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="247" spans="1:8">
@@ -6814,7 +6814,7 @@
         <v>-1500316.519799999</v>
       </c>
       <c r="H247">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="248" spans="1:8">
@@ -6866,7 +6866,7 @@
         <v>-1500316.519799999</v>
       </c>
       <c r="H249">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="250" spans="1:8">
@@ -6892,7 +6892,7 @@
         <v>-1539853.348999999</v>
       </c>
       <c r="H250">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="251" spans="1:8">
@@ -6918,7 +6918,7 @@
         <v>-1533293.257399999</v>
       </c>
       <c r="H251">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="252" spans="1:8">
@@ -6944,7 +6944,7 @@
         <v>-1533278.257399999</v>
       </c>
       <c r="H252">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="253" spans="1:8">
@@ -6970,7 +6970,7 @@
         <v>-1533278.257399999</v>
       </c>
       <c r="H253">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="254" spans="1:8">
@@ -6996,7 +6996,7 @@
         <v>-1533278.257399999</v>
       </c>
       <c r="H254">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="255" spans="1:8">
@@ -7022,7 +7022,7 @@
         <v>-1530407.925899999</v>
       </c>
       <c r="H255">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="256" spans="1:8">
@@ -7074,7 +7074,7 @@
         <v>-1530707.925899999</v>
       </c>
       <c r="H257">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="258" spans="1:8">
@@ -7308,7 +7308,7 @@
         <v>-1524387.553899999</v>
       </c>
       <c r="H266">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="267" spans="1:8">
@@ -7620,7 +7620,7 @@
         <v>-1534870.820399999</v>
       </c>
       <c r="H278">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="279" spans="1:8">
@@ -7646,7 +7646,7 @@
         <v>-1534870.820399999</v>
       </c>
       <c r="H279">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="280" spans="1:8">
@@ -7672,7 +7672,7 @@
         <v>-1534870.820399999</v>
       </c>
       <c r="H280">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="281" spans="1:8">
@@ -7698,7 +7698,7 @@
         <v>-1534870.820399999</v>
       </c>
       <c r="H281">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="282" spans="1:8">
@@ -7724,7 +7724,7 @@
         <v>-1534870.820399999</v>
       </c>
       <c r="H282">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="283" spans="1:8">
@@ -7750,7 +7750,7 @@
         <v>-1534870.820399999</v>
       </c>
       <c r="H283">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="284" spans="1:8">
@@ -7776,7 +7776,7 @@
         <v>-1534870.820399999</v>
       </c>
       <c r="H284">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="285" spans="1:8">
@@ -7854,7 +7854,7 @@
         <v>-1534870.820399999</v>
       </c>
       <c r="H287">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="288" spans="1:8">
@@ -7958,7 +7958,7 @@
         <v>-1531218.306299999</v>
       </c>
       <c r="H291">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="292" spans="1:8">
@@ -7984,7 +7984,7 @@
         <v>-1530997.937299999</v>
       </c>
       <c r="H292">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="293" spans="1:8">
@@ -8010,7 +8010,7 @@
         <v>-1516100.838399999</v>
       </c>
       <c r="H293">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="294" spans="1:8">
@@ -8036,7 +8036,7 @@
         <v>-1516366.391999999</v>
       </c>
       <c r="H294">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="295" spans="1:8">
@@ -8062,7 +8062,7 @@
         <v>-1516366.391999999</v>
       </c>
       <c r="H295">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="296" spans="1:8">
@@ -8088,7 +8088,7 @@
         <v>-1516366.391999999</v>
       </c>
       <c r="H296">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="297" spans="1:8">
@@ -8114,7 +8114,7 @@
         <v>-1516366.391999999</v>
       </c>
       <c r="H297">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="298" spans="1:8">
@@ -8192,7 +8192,7 @@
         <v>-1511338.795199999</v>
       </c>
       <c r="H300">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="301" spans="1:8">
@@ -8478,7 +8478,7 @@
         <v>-1506722.180999999</v>
       </c>
       <c r="H311">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="312" spans="1:8">
@@ -8582,7 +8582,7 @@
         <v>-1504806.827199999</v>
       </c>
       <c r="H315">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="316" spans="1:8">
@@ -9050,7 +9050,7 @@
         <v>-1505658.623299999</v>
       </c>
       <c r="H333">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="334" spans="1:8">
@@ -9076,7 +9076,7 @@
         <v>-1505657.623299999</v>
       </c>
       <c r="H334">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="335" spans="1:8">
@@ -9102,7 +9102,7 @@
         <v>-1505957.623199999</v>
       </c>
       <c r="H335">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="336" spans="1:8">
@@ -9128,7 +9128,7 @@
         <v>-1505957.623199999</v>
       </c>
       <c r="H336">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="337" spans="1:8">
@@ -9154,7 +9154,7 @@
         <v>-1505970.375799999</v>
       </c>
       <c r="H337">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="338" spans="1:8">
@@ -9180,7 +9180,7 @@
         <v>-1505970.375799999</v>
       </c>
       <c r="H338">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="339" spans="1:8">
@@ -9206,7 +9206,7 @@
         <v>-1505970.375799999</v>
       </c>
       <c r="H339">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="340" spans="1:8">
@@ -9232,7 +9232,7 @@
         <v>-1504675.895499999</v>
       </c>
       <c r="H340">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="341" spans="1:8">
@@ -9258,7 +9258,7 @@
         <v>-1504676.895499999</v>
       </c>
       <c r="H341">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="342" spans="1:8">
@@ -9310,7 +9310,7 @@
         <v>-1504675.895499999</v>
       </c>
       <c r="H343">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="344" spans="1:8">
@@ -9336,7 +9336,7 @@
         <v>-1504675.895499999</v>
       </c>
       <c r="H344">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="345" spans="1:8">
@@ -9362,7 +9362,7 @@
         <v>-1504675.895499999</v>
       </c>
       <c r="H345">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="346" spans="1:8">
@@ -9388,7 +9388,7 @@
         <v>-1504675.895499999</v>
       </c>
       <c r="H346">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="347" spans="1:8">
@@ -9414,7 +9414,7 @@
         <v>-1504675.895499999</v>
       </c>
       <c r="H347">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="348" spans="1:8">
@@ -9440,7 +9440,7 @@
         <v>-1503840.024499999</v>
       </c>
       <c r="H348">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="349" spans="1:8">
@@ -9466,7 +9466,7 @@
         <v>-1503840.024499999</v>
       </c>
       <c r="H349">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="350" spans="1:8">
@@ -9492,7 +9492,7 @@
         <v>-1500239.411699999</v>
       </c>
       <c r="H350">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="351" spans="1:8">
@@ -9518,7 +9518,7 @@
         <v>-1501068.411699999</v>
       </c>
       <c r="H351">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="352" spans="1:8">
@@ -9544,7 +9544,7 @@
         <v>-1501068.411699999</v>
       </c>
       <c r="H352">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="353" spans="1:8">
@@ -9570,7 +9570,7 @@
         <v>-1498582.201499999</v>
       </c>
       <c r="H353">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/pred_ohlcv/54_21/2019-10-24 KNC ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-10-24 KNC ohlcv.xlsx
@@ -1224,7 +1224,7 @@
         <v>-863311.7433999996</v>
       </c>
       <c r="H32">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1250,7 +1250,7 @@
         <v>-863311.7433999996</v>
       </c>
       <c r="H33">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1276,7 +1276,7 @@
         <v>-863311.7433999996</v>
       </c>
       <c r="H34">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1302,7 +1302,7 @@
         <v>-863311.7433999996</v>
       </c>
       <c r="H35">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1328,7 +1328,7 @@
         <v>-863311.7433999996</v>
       </c>
       <c r="H36">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1354,7 +1354,7 @@
         <v>-863311.7433999996</v>
       </c>
       <c r="H37">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -2212,7 +2212,7 @@
         <v>-863311.7433999996</v>
       </c>
       <c r="H70">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -2264,7 +2264,7 @@
         <v>-863311.7433999996</v>
       </c>
       <c r="H72">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -2290,7 +2290,7 @@
         <v>-863311.7433999996</v>
       </c>
       <c r="H73">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -2316,7 +2316,7 @@
         <v>-863311.7433999996</v>
       </c>
       <c r="H74">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -2342,7 +2342,7 @@
         <v>-863311.7433999996</v>
       </c>
       <c r="H75">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -2368,7 +2368,7 @@
         <v>180546.5560000004</v>
       </c>
       <c r="H76">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -2394,7 +2394,7 @@
         <v>-186253.4439999996</v>
       </c>
       <c r="H77">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -2420,7 +2420,7 @@
         <v>-186253.4439999996</v>
       </c>
       <c r="H78">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -2446,7 +2446,7 @@
         <v>-186253.4439999996</v>
       </c>
       <c r="H79">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -2472,7 +2472,7 @@
         <v>-186253.4439999996</v>
       </c>
       <c r="H80">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -2498,7 +2498,7 @@
         <v>-186253.4439999996</v>
       </c>
       <c r="H81">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -2524,7 +2524,7 @@
         <v>211763.5506000004</v>
       </c>
       <c r="H82">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -2550,7 +2550,7 @@
         <v>211763.5506000004</v>
       </c>
       <c r="H83">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -2576,7 +2576,7 @@
         <v>211763.5506000004</v>
       </c>
       <c r="H84">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -2706,7 +2706,7 @@
         <v>211763.5506000004</v>
       </c>
       <c r="H89">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -3044,7 +3044,7 @@
         <v>531647.2054000004</v>
       </c>
       <c r="H102">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -3070,7 +3070,7 @@
         <v>531647.2054000004</v>
       </c>
       <c r="H103">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -3096,7 +3096,7 @@
         <v>531647.2054000004</v>
       </c>
       <c r="H104">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="105" spans="1:8">
@@ -3122,7 +3122,7 @@
         <v>531647.2054000004</v>
       </c>
       <c r="H105">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="106" spans="1:8">
@@ -3148,7 +3148,7 @@
         <v>531647.2054000004</v>
       </c>
       <c r="H106">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -3174,7 +3174,7 @@
         <v>531647.2054000004</v>
       </c>
       <c r="H107">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="108" spans="1:8">
@@ -3200,7 +3200,7 @@
         <v>531647.2054000004</v>
       </c>
       <c r="H108">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="109" spans="1:8">
@@ -3226,7 +3226,7 @@
         <v>531647.2054000004</v>
       </c>
       <c r="H109">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="110" spans="1:8">
@@ -3252,7 +3252,7 @@
         <v>531647.2054000004</v>
       </c>
       <c r="H110">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="111" spans="1:8">
@@ -3278,7 +3278,7 @@
         <v>531647.2054000004</v>
       </c>
       <c r="H111">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="112" spans="1:8">
@@ -3304,7 +3304,7 @@
         <v>531647.2054000004</v>
       </c>
       <c r="H112">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="113" spans="1:8">
@@ -3330,7 +3330,7 @@
         <v>531647.2054000004</v>
       </c>
       <c r="H113">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="114" spans="1:8">
@@ -3460,7 +3460,7 @@
         <v>531647.2054000004</v>
       </c>
       <c r="H118">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="119" spans="1:8">
@@ -3512,7 +3512,7 @@
         <v>531647.2054000004</v>
       </c>
       <c r="H120">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="121" spans="1:8">
@@ -4942,7 +4942,7 @@
         <v>-1074470.8888</v>
       </c>
       <c r="H175">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="176" spans="1:8">
@@ -4968,7 +4968,7 @@
         <v>-1074470.8888</v>
       </c>
       <c r="H176">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="177" spans="1:8">
@@ -4994,7 +4994,7 @@
         <v>-1074470.8888</v>
       </c>
       <c r="H177">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="178" spans="1:8">
@@ -5020,7 +5020,7 @@
         <v>-1412066.8888</v>
       </c>
       <c r="H178">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="179" spans="1:8">
@@ -5046,7 +5046,7 @@
         <v>-1412066.8888</v>
       </c>
       <c r="H179">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="180" spans="1:8">
@@ -5072,7 +5072,7 @@
         <v>-1412066.8888</v>
       </c>
       <c r="H180">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="181" spans="1:8">
@@ -5098,7 +5098,7 @@
         <v>-1412066.8888</v>
       </c>
       <c r="H181">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="182" spans="1:8">
@@ -5124,7 +5124,7 @@
         <v>-1412066.8888</v>
       </c>
       <c r="H182">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="183" spans="1:8">
@@ -5150,7 +5150,7 @@
         <v>-1412066.8888</v>
       </c>
       <c r="H183">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="184" spans="1:8">
@@ -5176,7 +5176,7 @@
         <v>-1412066.8888</v>
       </c>
       <c r="H184">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="185" spans="1:8">
@@ -5202,7 +5202,7 @@
         <v>-1412066.8888</v>
       </c>
       <c r="H185">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="186" spans="1:8">
@@ -5228,7 +5228,7 @@
         <v>-1412066.8888</v>
       </c>
       <c r="H186">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="187" spans="1:8">
@@ -5254,7 +5254,7 @@
         <v>-1412066.8888</v>
       </c>
       <c r="H187">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="188" spans="1:8">
@@ -5280,7 +5280,7 @@
         <v>-1412066.8888</v>
       </c>
       <c r="H188">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="189" spans="1:8">
@@ -5306,7 +5306,7 @@
         <v>-1412066.8888</v>
       </c>
       <c r="H189">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="190" spans="1:8">
@@ -5332,7 +5332,7 @@
         <v>-1412066.8888</v>
       </c>
       <c r="H190">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="191" spans="1:8">
@@ -5358,7 +5358,7 @@
         <v>-1393960.6727</v>
       </c>
       <c r="H191">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="192" spans="1:8">
@@ -5384,7 +5384,7 @@
         <v>-1394915.336099999</v>
       </c>
       <c r="H192">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="193" spans="1:8">
@@ -5410,7 +5410,7 @@
         <v>-1394915.336099999</v>
       </c>
       <c r="H193">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="194" spans="1:8">
@@ -5436,7 +5436,7 @@
         <v>-1394915.336099999</v>
       </c>
       <c r="H194">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="195" spans="1:8">
@@ -5462,7 +5462,7 @@
         <v>-1423715.571999999</v>
       </c>
       <c r="H195">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="196" spans="1:8">
@@ -6112,7 +6112,7 @@
         <v>-1435111.542499999</v>
       </c>
       <c r="H220">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="221" spans="1:8">
@@ -6138,7 +6138,7 @@
         <v>-1435110.542499999</v>
       </c>
       <c r="H221">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="222" spans="1:8">
@@ -6190,7 +6190,7 @@
         <v>-1436011.693299999</v>
       </c>
       <c r="H223">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="224" spans="1:8">
@@ -6242,7 +6242,7 @@
         <v>-1442207.932799999</v>
       </c>
       <c r="H225">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="226" spans="1:8">
@@ -6294,7 +6294,7 @@
         <v>-1442207.932799999</v>
       </c>
       <c r="H227">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="228" spans="1:8">
@@ -6346,7 +6346,7 @@
         <v>-1442994.674299999</v>
       </c>
       <c r="H229">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="230" spans="1:8">
@@ -6372,7 +6372,7 @@
         <v>-1442824.909399999</v>
       </c>
       <c r="H230">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="231" spans="1:8">
@@ -6398,7 +6398,7 @@
         <v>-1442824.909399999</v>
       </c>
       <c r="H231">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="232" spans="1:8">
@@ -6424,7 +6424,7 @@
         <v>-1442824.909399999</v>
       </c>
       <c r="H232">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="233" spans="1:8">
@@ -6450,7 +6450,7 @@
         <v>-1444293.365199999</v>
       </c>
       <c r="H233">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="234" spans="1:8">
@@ -6476,7 +6476,7 @@
         <v>-1444293.365199999</v>
       </c>
       <c r="H234">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="235" spans="1:8">
@@ -6502,7 +6502,7 @@
         <v>-1443999.891299999</v>
       </c>
       <c r="H235">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="236" spans="1:8">
@@ -6528,7 +6528,7 @@
         <v>-1443999.891299999</v>
       </c>
       <c r="H236">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="237" spans="1:8">
@@ -6554,7 +6554,7 @@
         <v>-1443999.891299999</v>
       </c>
       <c r="H237">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="238" spans="1:8">
@@ -6580,7 +6580,7 @@
         <v>-1443999.891299999</v>
       </c>
       <c r="H238">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="239" spans="1:8">
@@ -6606,7 +6606,7 @@
         <v>-1443999.891299999</v>
       </c>
       <c r="H239">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="240" spans="1:8">
@@ -6632,7 +6632,7 @@
         <v>-1512237.566499999</v>
       </c>
       <c r="H240">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="241" spans="1:8">
@@ -6658,7 +6658,7 @@
         <v>-1503208.491599999</v>
       </c>
       <c r="H241">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="242" spans="1:8">
@@ -6684,7 +6684,7 @@
         <v>-1503208.491599999</v>
       </c>
       <c r="H242">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="243" spans="1:8">
@@ -6710,7 +6710,7 @@
         <v>-1502682.175899999</v>
       </c>
       <c r="H243">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="244" spans="1:8">
@@ -6736,7 +6736,7 @@
         <v>-1502985.519799999</v>
       </c>
       <c r="H244">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="245" spans="1:8">
@@ -6762,7 +6762,7 @@
         <v>-1501316.519799999</v>
       </c>
       <c r="H245">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="246" spans="1:8">
@@ -6788,7 +6788,7 @@
         <v>-1501316.519799999</v>
       </c>
       <c r="H246">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="247" spans="1:8">
@@ -6840,7 +6840,7 @@
         <v>-1500316.519799999</v>
       </c>
       <c r="H248">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="249" spans="1:8">
@@ -7100,7 +7100,7 @@
         <v>-1530707.925899999</v>
       </c>
       <c r="H258">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="259" spans="1:8">
@@ -7178,7 +7178,7 @@
         <v>-1530707.925899999</v>
       </c>
       <c r="H261">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="262" spans="1:8">
@@ -7230,7 +7230,7 @@
         <v>-1530855.623899999</v>
       </c>
       <c r="H263">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="264" spans="1:8">
@@ -7256,7 +7256,7 @@
         <v>-1525188.553899999</v>
       </c>
       <c r="H264">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="265" spans="1:8">
@@ -7282,7 +7282,7 @@
         <v>-1524387.553899999</v>
       </c>
       <c r="H265">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="266" spans="1:8">
@@ -7308,7 +7308,7 @@
         <v>-1524387.553899999</v>
       </c>
       <c r="H266">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="267" spans="1:8">
@@ -7620,7 +7620,7 @@
         <v>-1534870.820399999</v>
       </c>
       <c r="H278">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="279" spans="1:8">
@@ -7646,7 +7646,7 @@
         <v>-1534870.820399999</v>
       </c>
       <c r="H279">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="280" spans="1:8">
@@ -7672,7 +7672,7 @@
         <v>-1534870.820399999</v>
       </c>
       <c r="H280">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="281" spans="1:8">
@@ -7698,7 +7698,7 @@
         <v>-1534870.820399999</v>
       </c>
       <c r="H281">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="282" spans="1:8">
@@ -7724,7 +7724,7 @@
         <v>-1534870.820399999</v>
       </c>
       <c r="H282">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="283" spans="1:8">
@@ -7750,7 +7750,7 @@
         <v>-1534870.820399999</v>
       </c>
       <c r="H283">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="284" spans="1:8">
@@ -7776,7 +7776,7 @@
         <v>-1534870.820399999</v>
       </c>
       <c r="H284">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="285" spans="1:8">
@@ -7958,7 +7958,7 @@
         <v>-1531218.306299999</v>
       </c>
       <c r="H291">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="292" spans="1:8">
@@ -7984,7 +7984,7 @@
         <v>-1530997.937299999</v>
       </c>
       <c r="H292">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="293" spans="1:8">
@@ -8010,7 +8010,7 @@
         <v>-1516100.838399999</v>
       </c>
       <c r="H293">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="294" spans="1:8">
@@ -8036,7 +8036,7 @@
         <v>-1516366.391999999</v>
       </c>
       <c r="H294">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="295" spans="1:8">
@@ -8062,7 +8062,7 @@
         <v>-1516366.391999999</v>
       </c>
       <c r="H295">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="296" spans="1:8">
@@ -8088,7 +8088,7 @@
         <v>-1516366.391999999</v>
       </c>
       <c r="H296">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="297" spans="1:8">
@@ -8114,7 +8114,7 @@
         <v>-1516366.391999999</v>
       </c>
       <c r="H297">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="298" spans="1:8">
@@ -8192,7 +8192,7 @@
         <v>-1511338.795199999</v>
       </c>
       <c r="H300">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="301" spans="1:8">
@@ -8582,7 +8582,7 @@
         <v>-1504806.827199999</v>
       </c>
       <c r="H315">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="316" spans="1:8">
@@ -8634,7 +8634,7 @@
         <v>-1505031.974399999</v>
       </c>
       <c r="H317">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="318" spans="1:8">
@@ -8738,7 +8738,7 @@
         <v>-1502831.974399999</v>
       </c>
       <c r="H321">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="322" spans="1:8">
@@ -8998,7 +8998,7 @@
         <v>-1504272.824299999</v>
       </c>
       <c r="H331">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="332" spans="1:8">
@@ -9024,7 +9024,7 @@
         <v>-1504271.824299999</v>
       </c>
       <c r="H332">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="333" spans="1:8">
@@ -9050,7 +9050,7 @@
         <v>-1505658.623299999</v>
       </c>
       <c r="H333">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="334" spans="1:8">
@@ -9076,7 +9076,7 @@
         <v>-1505657.623299999</v>
       </c>
       <c r="H334">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="335" spans="1:8">
@@ -9102,7 +9102,7 @@
         <v>-1505957.623199999</v>
       </c>
       <c r="H335">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="336" spans="1:8">
@@ -9128,7 +9128,7 @@
         <v>-1505957.623199999</v>
       </c>
       <c r="H336">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="337" spans="1:8">
@@ -9154,7 +9154,7 @@
         <v>-1505970.375799999</v>
       </c>
       <c r="H337">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="338" spans="1:8">
@@ -9180,7 +9180,7 @@
         <v>-1505970.375799999</v>
       </c>
       <c r="H338">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="339" spans="1:8">
@@ -9206,7 +9206,7 @@
         <v>-1505970.375799999</v>
       </c>
       <c r="H339">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="340" spans="1:8">
@@ -9258,7 +9258,7 @@
         <v>-1504676.895499999</v>
       </c>
       <c r="H341">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="342" spans="1:8">
@@ -9336,7 +9336,7 @@
         <v>-1504675.895499999</v>
       </c>
       <c r="H344">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="345" spans="1:8">
@@ -9362,7 +9362,7 @@
         <v>-1504675.895499999</v>
       </c>
       <c r="H345">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="346" spans="1:8">
@@ -9388,7 +9388,7 @@
         <v>-1504675.895499999</v>
       </c>
       <c r="H346">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="347" spans="1:8">
@@ -9414,7 +9414,7 @@
         <v>-1504675.895499999</v>
       </c>
       <c r="H347">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="348" spans="1:8">
@@ -9440,7 +9440,7 @@
         <v>-1503840.024499999</v>
       </c>
       <c r="H348">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="349" spans="1:8">
@@ -9466,7 +9466,7 @@
         <v>-1503840.024499999</v>
       </c>
       <c r="H349">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="350" spans="1:8">
@@ -9492,7 +9492,7 @@
         <v>-1500239.411699999</v>
       </c>
       <c r="H350">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="351" spans="1:8">
@@ -9518,7 +9518,7 @@
         <v>-1501068.411699999</v>
       </c>
       <c r="H351">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="352" spans="1:8">
@@ -9544,7 +9544,7 @@
         <v>-1501068.411699999</v>
       </c>
       <c r="H352">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="353" spans="1:8">
@@ -9570,7 +9570,7 @@
         <v>-1498582.201499999</v>
       </c>
       <c r="H353">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
